--- a/biology/Botanique/Ectocarpales/Ectocarpales.xlsx
+++ b/biology/Botanique/Ectocarpales/Ectocarpales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ectocarpales est un ordre d’algues brunes marines de la classe des Phaeophyceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (4 février 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (4 février 2019) :
 famille des Acinetosporaceae G.Hamel ex Feldmann
 famille des Adenocystaceae F.Rousseau, B.de Reviers, M.-C.Leclerc, A.Asensi, &amp; R.Delépine
 famille des Chordariaceae Greville
@@ -523,7 +537,7 @@
 famille des Petrospongiaceae Racault &amp; al.
 famille des Scytosiphonaceae Farlow
 famille des Sorocarpaceae P.M.Pedersen
-Selon Catalogue of Life                                   (4 février 2019)[2] :
+Selon Catalogue of Life                                   (4 février 2019) :
 famille des Acinetosporaceae
 famille des Adenocystaceae
 famille des Ectocarpaceae
@@ -532,7 +546,7 @@
 famille des Petrospongiaceae
 famille des Pylaiellaceae
 famille des Ralfsiaceae
-Selon ITIS      (4 février 2019)[3] :
+Selon ITIS      (4 février 2019) :
 famille des Acrotrichaceae
 famille des Chordariaceae
 famille des Corynophlaeaceae
@@ -541,7 +555,7 @@
 famille des Myrionemataceae
 famille des Ralfsiaceae
 famille des Spermatochnaceae
-Selon NCBI  (4 février 2019)[4] :
+Selon NCBI  (4 février 2019) :
 famille des Acinetosporaceae
 famille des Acrotrichaceae
 famille des Adenocystaceae
@@ -549,7 +563,7 @@
 famille des Ectocarpaceae
 famille des Ishigeaceae
 famille des Scytosiphonaceae
-Selon World Register of Marine Species                               (4 février 2019)[5] :
+Selon World Register of Marine Species                               (4 février 2019) :
 famille des Acinetosporaceae Hamel ex J. Feldmann, 1937
 famille des Adenocystaceae F. Rousseau, B. de Reviers, M.-C. Leclerc, A. Asensi &amp; R. Delépine
 famille des Chordariaceae Greville, 1830
